--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Proc-Thbd.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Proc-Thbd.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.07143733333333334</v>
+        <v>0.347467</v>
       </c>
       <c r="H2">
-        <v>0.214312</v>
+        <v>1.042401</v>
       </c>
       <c r="I2">
-        <v>0.5669824623598166</v>
+        <v>0.864291305025554</v>
       </c>
       <c r="J2">
-        <v>0.5669824623598166</v>
+        <v>0.864291305025554</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.33306566666667</v>
+        <v>52.47402833333333</v>
       </c>
       <c r="N2">
-        <v>90.999197</v>
+        <v>157.422085</v>
       </c>
       <c r="O2">
-        <v>0.510466355126488</v>
+        <v>0.699720168977827</v>
       </c>
       <c r="P2">
-        <v>0.510466355126488</v>
+        <v>0.6997201689778269</v>
       </c>
       <c r="Q2">
-        <v>2.166913323051556</v>
+        <v>18.23299320289833</v>
       </c>
       <c r="R2">
-        <v>19.502219907464</v>
+        <v>164.096938826085</v>
       </c>
       <c r="S2">
-        <v>0.2894254709814568</v>
+        <v>0.6047620579985472</v>
       </c>
       <c r="T2">
-        <v>0.2894254709814568</v>
+        <v>0.6047620579985471</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.07143733333333334</v>
+        <v>0.347467</v>
       </c>
       <c r="H3">
-        <v>0.214312</v>
+        <v>1.042401</v>
       </c>
       <c r="I3">
-        <v>0.5669824623598166</v>
+        <v>0.864291305025554</v>
       </c>
       <c r="J3">
-        <v>0.5669824623598166</v>
+        <v>0.864291305025554</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>37.129086</v>
       </c>
       <c r="O3">
-        <v>0.2082782027142274</v>
+        <v>0.1650338345468634</v>
       </c>
       <c r="P3">
-        <v>0.2082782027142274</v>
+        <v>0.1650338345468634</v>
       </c>
       <c r="Q3">
-        <v>0.8841342976480001</v>
+        <v>4.300377375054</v>
       </c>
       <c r="R3">
-        <v>7.957208678832</v>
+        <v>38.703396375486</v>
       </c>
       <c r="S3">
-        <v>0.1180900882307897</v>
+        <v>0.14263730823388</v>
       </c>
       <c r="T3">
-        <v>0.1180900882307897</v>
+        <v>0.14263730823388</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.07143733333333334</v>
+        <v>0.347467</v>
       </c>
       <c r="H4">
-        <v>0.214312</v>
+        <v>1.042401</v>
       </c>
       <c r="I4">
-        <v>0.5669824623598166</v>
+        <v>0.864291305025554</v>
       </c>
       <c r="J4">
-        <v>0.5669824623598166</v>
+        <v>0.864291305025554</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.607805666666667</v>
+        <v>6.377905999999999</v>
       </c>
       <c r="N4">
-        <v>16.823417</v>
+        <v>19.133718</v>
       </c>
       <c r="O4">
-        <v>0.09437213338006703</v>
+        <v>0.08504682422503862</v>
       </c>
       <c r="P4">
-        <v>0.09437213338006702</v>
+        <v>0.08504682422503862</v>
       </c>
       <c r="Q4">
-        <v>0.4006066826782222</v>
+        <v>2.216111864101999</v>
       </c>
       <c r="R4">
-        <v>3.605460144104</v>
+        <v>19.945006776918</v>
       </c>
       <c r="S4">
-        <v>0.05350734456197945</v>
+        <v>0.07350523069773753</v>
       </c>
       <c r="T4">
-        <v>0.05350734456197944</v>
+        <v>0.07350523069773753</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.07143733333333334</v>
+        <v>0.347467</v>
       </c>
       <c r="H5">
-        <v>0.214312</v>
+        <v>1.042401</v>
       </c>
       <c r="I5">
-        <v>0.5669824623598166</v>
+        <v>0.864291305025554</v>
       </c>
       <c r="J5">
-        <v>0.5669824623598166</v>
+        <v>0.864291305025554</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.105029</v>
+        <v>3.764580333333333</v>
       </c>
       <c r="N5">
-        <v>33.31508700000001</v>
+        <v>11.293741</v>
       </c>
       <c r="O5">
-        <v>0.1868833087792175</v>
+        <v>0.05019917225027106</v>
       </c>
       <c r="P5">
-        <v>0.1868833087792175</v>
+        <v>0.05019917225027107</v>
       </c>
       <c r="Q5">
-        <v>0.7933136583493335</v>
+        <v>1.308067434682333</v>
       </c>
       <c r="R5">
-        <v>7.139822925144001</v>
+        <v>11.772606912141</v>
       </c>
       <c r="S5">
-        <v>0.1059595585855907</v>
+        <v>0.04338670809538935</v>
       </c>
       <c r="T5">
-        <v>0.1059595585855907</v>
+        <v>0.04338670809538935</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.163675</v>
       </c>
       <c r="I6">
-        <v>0.4330175376401833</v>
+        <v>0.135708694974446</v>
       </c>
       <c r="J6">
-        <v>0.4330175376401834</v>
+        <v>0.135708694974446</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.33306566666667</v>
+        <v>52.47402833333333</v>
       </c>
       <c r="N6">
-        <v>90.999197</v>
+        <v>157.422085</v>
       </c>
       <c r="O6">
-        <v>0.510466355126488</v>
+        <v>0.699720168977827</v>
       </c>
       <c r="P6">
-        <v>0.510466355126488</v>
+        <v>0.6997201689778269</v>
       </c>
       <c r="Q6">
-        <v>1.654921507663889</v>
+        <v>2.862895529152777</v>
       </c>
       <c r="R6">
-        <v>14.894293568975</v>
+        <v>25.76605976237499</v>
       </c>
       <c r="S6">
-        <v>0.2210408841450312</v>
+        <v>0.09495811097927977</v>
       </c>
       <c r="T6">
-        <v>0.2210408841450312</v>
+        <v>0.09495811097927975</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.163675</v>
       </c>
       <c r="I7">
-        <v>0.4330175376401833</v>
+        <v>0.135708694974446</v>
       </c>
       <c r="J7">
-        <v>0.4330175376401834</v>
+        <v>0.135708694974446</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>37.129086</v>
       </c>
       <c r="O7">
-        <v>0.2082782027142274</v>
+        <v>0.1650338345468634</v>
       </c>
       <c r="P7">
-        <v>0.2082782027142274</v>
+        <v>0.1650338345468634</v>
       </c>
       <c r="Q7">
         <v>0.6752336834499999</v>
@@ -883,10 +883,10 @@
         <v>6.077103151049999</v>
       </c>
       <c r="S7">
-        <v>0.09018811448343769</v>
+        <v>0.02239652631298349</v>
       </c>
       <c r="T7">
-        <v>0.09018811448343771</v>
+        <v>0.02239652631298349</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.163675</v>
       </c>
       <c r="I8">
-        <v>0.4330175376401833</v>
+        <v>0.135708694974446</v>
       </c>
       <c r="J8">
-        <v>0.4330175376401834</v>
+        <v>0.135708694974446</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.607805666666667</v>
+        <v>6.377905999999999</v>
       </c>
       <c r="N8">
-        <v>16.823417</v>
+        <v>19.133718</v>
       </c>
       <c r="O8">
-        <v>0.09437213338006703</v>
+        <v>0.08504682422503862</v>
       </c>
       <c r="P8">
-        <v>0.09437213338006702</v>
+        <v>0.08504682422503862</v>
       </c>
       <c r="Q8">
-        <v>0.3059525308305555</v>
+        <v>0.3479679215166666</v>
       </c>
       <c r="R8">
-        <v>2.753572777475</v>
+        <v>3.13171129365</v>
       </c>
       <c r="S8">
-        <v>0.04086478881808758</v>
+        <v>0.01154159352730109</v>
       </c>
       <c r="T8">
-        <v>0.04086478881808758</v>
+        <v>0.01154159352730109</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.163675</v>
       </c>
       <c r="I9">
-        <v>0.4330175376401833</v>
+        <v>0.135708694974446</v>
       </c>
       <c r="J9">
-        <v>0.4330175376401834</v>
+        <v>0.135708694974446</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.105029</v>
+        <v>3.764580333333333</v>
       </c>
       <c r="N9">
-        <v>33.31508700000001</v>
+        <v>11.293741</v>
       </c>
       <c r="O9">
-        <v>0.1868833087792175</v>
+        <v>0.05019917225027106</v>
       </c>
       <c r="P9">
-        <v>0.1868833087792175</v>
+        <v>0.05019917225027107</v>
       </c>
       <c r="Q9">
-        <v>0.6058718738583334</v>
+        <v>0.2053892286861111</v>
       </c>
       <c r="R9">
-        <v>5.452846864725</v>
+        <v>1.848503058175</v>
       </c>
       <c r="S9">
-        <v>0.08092375019362684</v>
+        <v>0.006812464154881711</v>
       </c>
       <c r="T9">
-        <v>0.08092375019362684</v>
+        <v>0.006812464154881712</v>
       </c>
     </row>
   </sheetData>
